--- a/world.xlsx
+++ b/world.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="6675" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
